--- a/Weapolution2018.1/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
+++ b/Weapolution2018.1/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>編號</t>
   </si>
@@ -161,6 +161,14 @@
   </si>
   <si>
     <t>doubleWood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -648,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>103</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -697,204 +705,262 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>-50</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="1">
+        <v>-50</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -909,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/Weapolution2018.1/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
+++ b/Weapolution2018.1/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>編號</t>
   </si>
@@ -169,6 +169,14 @@
   </si>
   <si>
     <t>spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +532,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -894,7 +902,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="1">
         <v>-1</v>
@@ -973,10 +981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1302,19 +1310,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>-1</v>
+        <v>-50</v>
       </c>
       <c r="D12" s="1">
         <v>-1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1">
         <v>-1</v>
@@ -1331,30 +1339,59 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Weapolution2018.1/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
+++ b/Weapolution2018.1/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2580" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="CraftDataBase50" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
   <si>
     <t>編號</t>
   </si>
@@ -177,13 +178,41 @@
   </si>
   <si>
     <t>blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3木3鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5木 1鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵弓+棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵弓+2鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5木2石1鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3木3石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -531,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -984,7 +1013,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1400,4 +1429,564 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1">
+        <v>78</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-50</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>